--- a/Documents/Expense Report.xlsx
+++ b/Documents/Expense Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date:</t>
   </si>
@@ -33,13 +33,25 @@
     <t>Amit Patankar</t>
   </si>
   <si>
-    <t>Expense:</t>
-  </si>
-  <si>
     <t>Purchase exceleratetestprep.com domain name</t>
   </si>
   <si>
     <t>Purchase website from Wix.com to link to domain name</t>
+  </si>
+  <si>
+    <t>Purchased micro account from github to make excelerate private</t>
+  </si>
+  <si>
+    <t>$14.95/year</t>
+  </si>
+  <si>
+    <t>$49.00/year</t>
+  </si>
+  <si>
+    <t>$7.00/month</t>
+  </si>
+  <si>
+    <t>Expense/Time:</t>
   </si>
 </sst>
 </file>
@@ -114,8 +126,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -127,9 +145,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,16 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -491,27 +515,41 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
-        <v>14.95</v>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="4">
         <v>41654</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>49</v>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>41654</v>
       </c>
       <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>41656</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Documents/Expense Report.xlsx
+++ b/Documents/Expense Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Date:</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Expense/Time:</t>
+  </si>
+  <si>
+    <t>$10.90/year</t>
+  </si>
+  <si>
+    <t>Business Cards (250 for advertising and clients)</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -553,6 +559,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41662</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Documents/Expense Report.xlsx
+++ b/Documents/Expense Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date:</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Business Cards (250 for advertising and clients)</t>
+  </si>
+  <si>
+    <t>$53.90/year</t>
+  </si>
+  <si>
+    <t>Purchased upgrade plan for website to make it seem more professional</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,6 +579,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>41684</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
